--- a/작업일지/노창현/계획서.xlsx
+++ b/작업일지/노창현/계획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\작업일지\노창현\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010073D-F559-42F7-8957-E3DF82752C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F9BBD-FBCE-4889-90A7-3A4D685AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6150" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,6 +425,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +643,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -674,12 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -689,7 +701,22 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1028,10 +1055,10 @@
     <tabColor rgb="FFF79646"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD34"/>
+  <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1043,48 +1070,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="20">
         <f>DATEVALUE("2024/02/20")</f>
         <v>45342</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1437,21 +1464,21 @@
         <f>TEXT("슬라임 바닥  이팩트","aaa")</f>
         <v>슬라임 바닥  이팩트</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
       <c r="R7" s="13"/>
       <c r="S7" s="14"/>
       <c r="T7" s="13"/>
@@ -1471,14 +1498,14 @@
         <f>TEXT("캐릭터 머테리얼작업","aaa")</f>
         <v>캐릭터 머테리얼작업</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="14"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
@@ -1505,27 +1532,27 @@
         <f>TEXT("상세기획서 작성","aaa")</f>
         <v>상세기획서 작성</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="13"/>
@@ -1536,8 +1563,8 @@
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
       <c r="B10" s="12" t="str">
-        <f>TEXT("맵 제작","aaa")</f>
-        <v>맵 제작</v>
+        <f>TEXT("맵 모델링","aaa")</f>
+        <v>맵 모델링</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -1547,20 +1574,20 @@
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="14"/>
@@ -1569,390 +1596,390 @@
       <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="2:30" ht="30" customHeight="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="5" t="str">
-        <f>LOWER(TEXT(C13,"m월"))</f>
-        <v>3월</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" ref="D11:I11" si="8">IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F11" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H11" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J11" s="7" t="str">
-        <f>LOWER(TEXT(J13,"m월"))</f>
-        <v>3월</v>
-      </c>
-      <c r="K11" s="7" t="str">
-        <f t="shared" ref="K11:P11" si="9">IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L11" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N11" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O11" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P11" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v>4월</v>
-      </c>
-      <c r="Q11" s="6" t="str">
-        <f>LOWER(TEXT(Q13,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="R11" s="6" t="str">
-        <f t="shared" ref="R11:W11" si="10">IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S11" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T11" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U11" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V11" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="W11" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="X11" s="7" t="str">
-        <f>LOWER(TEXT(X13,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="Y11" s="7" t="str">
-        <f t="shared" ref="Y11:AD11" si="11">IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z11" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AA11" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB11" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AC11" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AD11" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="B11" s="12" t="str">
+        <f>TEXT("맵 텍스처 작업","aaa")</f>
+        <v>맵 텍스처 작업</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
     </row>
     <row r="12" spans="2:30" ht="30" customHeight="1">
       <c r="B12" s="12"/>
-      <c r="C12" s="8" t="str">
-        <f>LOWER(TEXT(C13,"aaa"))</f>
+      <c r="C12" s="14" t="str">
+        <f>LOWER(TEXT(C14,"m월"))</f>
+        <v>3월</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f t="shared" ref="D12:I12" si="8">IF(TEXT(D14,"m월")=TEXT(C14,"m월"),"",LOWER(TEXT(D14,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G12" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H12" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f>LOWER(TEXT(J14,"m월"))</f>
+        <v>3월</v>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" ref="K12:P12" si="9">IF(TEXT(K14,"m월")=TEXT(J14,"m월"),"",LOWER(TEXT(K14,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O12" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>4월</v>
+      </c>
+      <c r="Q12" s="6" t="str">
+        <f>LOWER(TEXT(Q14,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f t="shared" ref="R12:W12" si="10">IF(TEXT(R14,"m월")=TEXT(Q14,"m월"),"",LOWER(TEXT(R14,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S12" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T12" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U12" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="V12" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="W12" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="X12" s="7" t="str">
+        <f>LOWER(TEXT(X14,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="Y12" s="7" t="str">
+        <f t="shared" ref="Y12:AD12" si="11">IF(TEXT(Y14,"m월")=TEXT(X14,"m월"),"",LOWER(TEXT(Y14,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z12" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA12" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AB12" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AC12" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD12" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:30" ht="30" customHeight="1">
+      <c r="B13" s="12"/>
+      <c r="C13" s="8" t="str">
+        <f>LOWER(TEXT(C14,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" ref="D12:AD12" si="12">LOWER(TEXT(D13,"aaa"))</f>
+      <c r="D13" s="8" t="str">
+        <f t="shared" ref="D13:AD13" si="12">LOWER(TEXT(D14,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>목</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>금</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>토</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>일</v>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>월</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>화</v>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>수</v>
       </c>
-      <c r="L12" s="9" t="str">
+      <c r="L13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>목</v>
       </c>
-      <c r="M12" s="9" t="str">
+      <c r="M13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>금</v>
       </c>
-      <c r="N12" s="9" t="str">
+      <c r="N13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>토</v>
       </c>
-      <c r="O12" s="9" t="str">
+      <c r="O13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>일</v>
       </c>
-      <c r="P12" s="9" t="str">
+      <c r="P13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>월</v>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="Q13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>화</v>
       </c>
-      <c r="R12" s="8" t="str">
+      <c r="R13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>수</v>
       </c>
-      <c r="S12" s="8" t="str">
+      <c r="S13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>목</v>
       </c>
-      <c r="T12" s="8" t="str">
+      <c r="T13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>금</v>
       </c>
-      <c r="U12" s="8" t="str">
+      <c r="U13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>토</v>
       </c>
-      <c r="V12" s="8" t="str">
+      <c r="V13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>일</v>
       </c>
-      <c r="W12" s="8" t="str">
+      <c r="W13" s="8" t="str">
         <f t="shared" si="12"/>
         <v>월</v>
       </c>
-      <c r="X12" s="9" t="str">
+      <c r="X13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>화</v>
       </c>
-      <c r="Y12" s="9" t="str">
+      <c r="Y13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>수</v>
       </c>
-      <c r="Z12" s="9" t="str">
+      <c r="Z13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>목</v>
       </c>
-      <c r="AA12" s="9" t="str">
+      <c r="AA13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>금</v>
       </c>
-      <c r="AB12" s="9" t="str">
+      <c r="AB13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>토</v>
       </c>
-      <c r="AC12" s="9" t="str">
+      <c r="AC13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>일</v>
       </c>
-      <c r="AD12" s="9" t="str">
+      <c r="AD13" s="9" t="str">
         <f t="shared" si="12"/>
         <v>월</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="10">
+    <row r="14" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B14" s="12"/>
+      <c r="C14" s="10">
         <f>AD6+1</f>
         <v>45370</v>
       </c>
-      <c r="D13" s="10">
-        <f t="shared" ref="D13:AD13" si="13">C13+1</f>
+      <c r="D14" s="10">
+        <f t="shared" ref="D14:AD14" si="13">C14+1</f>
         <v>45371</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <f t="shared" si="13"/>
         <v>45372</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <f t="shared" si="13"/>
         <v>45373</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <f t="shared" si="13"/>
         <v>45374</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="13"/>
         <v>45375</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <f t="shared" si="13"/>
         <v>45376</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J14" s="11">
         <f t="shared" si="13"/>
         <v>45377</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K14" s="11">
         <f t="shared" si="13"/>
         <v>45378</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="13"/>
         <v>45379</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M14" s="11">
         <f t="shared" si="13"/>
         <v>45380</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="13"/>
         <v>45381</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <f t="shared" si="13"/>
         <v>45382</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P14" s="11">
         <f t="shared" si="13"/>
         <v>45383</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q14" s="10">
         <f t="shared" si="13"/>
         <v>45384</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R14" s="10">
         <f t="shared" si="13"/>
         <v>45385</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S14" s="10">
         <f t="shared" si="13"/>
         <v>45386</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T14" s="10">
         <f t="shared" si="13"/>
         <v>45387</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U14" s="10">
         <f t="shared" si="13"/>
         <v>45388</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V14" s="10">
         <f t="shared" si="13"/>
         <v>45389</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W14" s="10">
         <f t="shared" si="13"/>
         <v>45390</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X14" s="11">
         <f t="shared" si="13"/>
         <v>45391</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y14" s="11">
         <f t="shared" si="13"/>
         <v>45392</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z14" s="11">
         <f t="shared" si="13"/>
         <v>45393</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA14" s="11">
         <f t="shared" si="13"/>
         <v>45394</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB14" s="11">
         <f t="shared" si="13"/>
         <v>45395</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC14" s="11">
         <f t="shared" si="13"/>
         <v>45396</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AD14" s="11">
         <f t="shared" si="13"/>
         <v>45397</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" ht="30" customHeight="1">
-      <c r="B14" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="13"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C15" s="14"/>
+        <f>TEXT("맵 텍스처 작업","aaa")</f>
+        <v>맵 텍스처 작업</v>
+      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -1983,22 +2010,22 @@
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
       <c r="B16" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
+        <f>TEXT("오브젝트 모델링","aaa")</f>
+        <v>오브젝트 모델링</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="13"/>
@@ -2016,383 +2043,383 @@
       <c r="AD16" s="13"/>
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="5" t="str">
-        <f>LOWER(TEXT(C19,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" ref="D17:I17" si="14">IF(TEXT(D19,"m월")=TEXT(C19,"m월"),"",LOWER(TEXT(D19,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E17" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F17" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G17" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H17" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I17" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J17" s="7" t="str">
-        <f>LOWER(TEXT(J19,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="K17" s="7" t="str">
-        <f t="shared" ref="K17:P17" si="15">IF(TEXT(K19,"m월")=TEXT(J19,"m월"),"",LOWER(TEXT(K19,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L17" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M17" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N17" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O17" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P17" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="Q17" s="6" t="str">
-        <f>LOWER(TEXT(Q19,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="R17" s="6" t="str">
-        <f t="shared" ref="R17:W17" si="16">IF(TEXT(R19,"m월")=TEXT(Q19,"m월"),"",LOWER(TEXT(R19,"m월")))</f>
-        <v>5월</v>
-      </c>
-      <c r="S17" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="T17" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="U17" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="V17" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="W17" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X17" s="7" t="str">
-        <f>LOWER(TEXT(X19,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="Y17" s="7" t="str">
-        <f t="shared" ref="Y17:AD17" si="17">IF(TEXT(Y19,"m월")=TEXT(X19,"m월"),"",LOWER(TEXT(Y19,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z17" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA17" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AB17" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AC17" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AD17" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="B17" s="12" t="str">
+        <f>TEXT("오브젝트 텍스처 작업","aaa")</f>
+        <v>오브젝트 텍스처 작업</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="13"/>
     </row>
     <row r="18" spans="2:30" ht="30" customHeight="1">
       <c r="B18" s="12"/>
-      <c r="C18" s="8" t="str">
-        <f>LOWER(TEXT(C19,"aaa"))</f>
+      <c r="C18" s="5" t="str">
+        <f>LOWER(TEXT(C20,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" ref="D18:I18" si="14">IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f>LOWER(TEXT(J20,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" ref="K18:P18" si="15">IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L18" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M18" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O18" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q18" s="6" t="str">
+        <f>LOWER(TEXT(Q20,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" ref="R18:W18" si="16">IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
+        <v>5월</v>
+      </c>
+      <c r="S18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="V18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="W18" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X18" s="7" t="str">
+        <f>LOWER(TEXT(X20,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="Y18" s="7" t="str">
+        <f t="shared" ref="Y18:AD18" si="17">IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z18" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA18" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB18" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AC18" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD18" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="30" customHeight="1">
+      <c r="B19" s="12"/>
+      <c r="C19" s="8" t="str">
+        <f>LOWER(TEXT(C20,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D18" s="8" t="str">
-        <f t="shared" ref="D18:AD18" si="18">LOWER(TEXT(D19,"aaa"))</f>
+      <c r="D19" s="8" t="str">
+        <f t="shared" ref="D19:AD19" si="18">LOWER(TEXT(D20,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
-      <c r="K18" s="9" t="str">
+      <c r="K19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>수</v>
       </c>
-      <c r="L18" s="9" t="str">
+      <c r="L19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="M18" s="9" t="str">
+      <c r="M19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="N18" s="9" t="str">
+      <c r="N19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="O18" s="9" t="str">
+      <c r="O19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="P18" s="9" t="str">
+      <c r="P19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="Q19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
-      <c r="R18" s="8" t="str">
+      <c r="R19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>수</v>
       </c>
-      <c r="S18" s="8" t="str">
+      <c r="S19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="T18" s="8" t="str">
+      <c r="T19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="U18" s="8" t="str">
+      <c r="U19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="V18" s="8" t="str">
+      <c r="V19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="W18" s="8" t="str">
+      <c r="W19" s="8" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="X18" s="9" t="str">
+      <c r="X19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
-      <c r="Y18" s="9" t="str">
+      <c r="Y19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>수</v>
       </c>
-      <c r="Z18" s="9" t="str">
+      <c r="Z19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="AA18" s="9" t="str">
+      <c r="AA19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="AB18" s="9" t="str">
+      <c r="AB19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="AC18" s="9" t="str">
+      <c r="AC19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="AD18" s="9" t="str">
+      <c r="AD19" s="9" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="12"/>
-      <c r="C19" s="10">
-        <f>AD13+1</f>
+    <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B20" s="12"/>
+      <c r="C20" s="10">
+        <f>AD14+1</f>
         <v>45398</v>
       </c>
-      <c r="D19" s="10">
-        <f t="shared" ref="D19:AD19" si="19">C19+1</f>
+      <c r="D20" s="10">
+        <f t="shared" ref="D20:AD20" si="19">C20+1</f>
         <v>45399</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <f t="shared" si="19"/>
         <v>45400</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <f t="shared" si="19"/>
         <v>45401</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <f t="shared" si="19"/>
         <v>45402</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="19"/>
         <v>45403</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <f t="shared" si="19"/>
         <v>45404</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="11">
         <f t="shared" si="19"/>
         <v>45405</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <f t="shared" si="19"/>
         <v>45406</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L20" s="11">
         <f t="shared" si="19"/>
         <v>45407</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M20" s="11">
         <f t="shared" si="19"/>
         <v>45408</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="19"/>
         <v>45409</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O20" s="11">
         <f t="shared" si="19"/>
         <v>45410</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P20" s="11">
         <f t="shared" si="19"/>
         <v>45411</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q20" s="10">
         <f t="shared" si="19"/>
         <v>45412</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R20" s="10">
         <f t="shared" si="19"/>
         <v>45413</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S20" s="10">
         <f t="shared" si="19"/>
         <v>45414</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T20" s="10">
         <f t="shared" si="19"/>
         <v>45415</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U20" s="10">
         <f t="shared" si="19"/>
         <v>45416</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V20" s="10">
         <f t="shared" si="19"/>
         <v>45417</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W20" s="10">
         <f t="shared" si="19"/>
         <v>45418</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X20" s="11">
         <f t="shared" si="19"/>
         <v>45419</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y20" s="11">
         <f t="shared" si="19"/>
         <v>45420</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z20" s="11">
         <f t="shared" si="19"/>
         <v>45421</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA20" s="11">
         <f t="shared" si="19"/>
         <v>45422</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AB20" s="11">
         <f t="shared" si="19"/>
         <v>45423</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AC20" s="11">
         <f t="shared" si="19"/>
         <v>45424</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AD20" s="11">
         <f t="shared" si="19"/>
         <v>45425</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" ht="30" customHeight="1">
-      <c r="B20" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="12" t="str">
@@ -2463,383 +2490,383 @@
       <c r="AD22" s="13"/>
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1">
-      <c r="B23" s="12"/>
-      <c r="C23" s="5" t="str">
-        <f>LOWER(TEXT(C25,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="D23" s="6" t="str">
-        <f t="shared" ref="D23:I23" si="20">IF(TEXT(D25,"m월")=TEXT(C25,"m월"),"",LOWER(TEXT(D25,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E23" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F23" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G23" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H23" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I23" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f>LOWER(TEXT(J25,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" ref="K23:P23" si="21">IF(TEXT(K25,"m월")=TEXT(J25,"m월"),"",LOWER(TEXT(K25,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L23" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M23" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N23" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O23" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P23" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q23" s="6" t="str">
-        <f>LOWER(TEXT(Q25,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="R23" s="6" t="str">
-        <f t="shared" ref="R23:W23" si="22">IF(TEXT(R25,"m월")=TEXT(Q25,"m월"),"",LOWER(TEXT(R25,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S23" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T23" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="U23" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>6월</v>
-      </c>
-      <c r="V23" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="W23" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X23" s="7" t="str">
-        <f>LOWER(TEXT(X25,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="Y23" s="7" t="str">
-        <f t="shared" ref="Y23:AD23" si="23">IF(TEXT(Y25,"m월")=TEXT(X25,"m월"),"",LOWER(TEXT(Y25,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z23" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AA23" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AB23" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AC23" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AD23" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
+      <c r="B23" s="12" t="str">
+        <f>TEXT("","aaa")</f>
+        <v/>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="8" t="str">
-        <f>LOWER(TEXT(C25,"aaa"))</f>
+      <c r="C24" s="5" t="str">
+        <f>LOWER(TEXT(C26,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" ref="D24:I24" si="20">IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f>LOWER(TEXT(J26,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" ref="K24:P24" si="21">IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L24" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="M24" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O24" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="P24" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q24" s="6" t="str">
+        <f>LOWER(TEXT(Q26,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" ref="R24:W24" si="22">IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S24" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T24" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U24" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>6월</v>
+      </c>
+      <c r="V24" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W24" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X24" s="7" t="str">
+        <f>LOWER(TEXT(X26,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="Y24" s="7" t="str">
+        <f t="shared" ref="Y24:AD24" si="23">IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z24" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AA24" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AB24" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AC24" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AD24" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="30" customHeight="1">
+      <c r="B25" s="12"/>
+      <c r="C25" s="8" t="str">
+        <f>LOWER(TEXT(C26,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D24" s="8" t="str">
-        <f t="shared" ref="D24:AD24" si="24">LOWER(TEXT(D25,"aaa"))</f>
+      <c r="D25" s="8" t="str">
+        <f t="shared" ref="D25:AD25" si="24">LOWER(TEXT(D26,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
-      <c r="J24" s="9" t="str">
+      <c r="J25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>화</v>
       </c>
-      <c r="K24" s="9" t="str">
+      <c r="K25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>수</v>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="M24" s="9" t="str">
+      <c r="M25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="N24" s="9" t="str">
+      <c r="N25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="O24" s="9" t="str">
+      <c r="O25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="P24" s="9" t="str">
+      <c r="P25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
-      <c r="Q24" s="8" t="str">
+      <c r="Q25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>화</v>
       </c>
-      <c r="R24" s="8" t="str">
+      <c r="R25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>수</v>
       </c>
-      <c r="S24" s="8" t="str">
+      <c r="S25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="T24" s="8" t="str">
+      <c r="T25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="U24" s="8" t="str">
+      <c r="U25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="V24" s="8" t="str">
+      <c r="V25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="W24" s="8" t="str">
+      <c r="W25" s="8" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
-      <c r="X24" s="9" t="str">
+      <c r="X25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>화</v>
       </c>
-      <c r="Y24" s="9" t="str">
+      <c r="Y25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>수</v>
       </c>
-      <c r="Z24" s="9" t="str">
+      <c r="Z25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="AA24" s="9" t="str">
+      <c r="AA25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="AB24" s="9" t="str">
+      <c r="AB25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="AC24" s="9" t="str">
+      <c r="AC25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="AD24" s="9" t="str">
+      <c r="AD25" s="9" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="12"/>
-      <c r="C25" s="10">
-        <f>AD19+1</f>
+    <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="10">
+        <f>AD20+1</f>
         <v>45426</v>
       </c>
-      <c r="D25" s="10">
-        <f t="shared" ref="D25:AD25" si="25">C25+1</f>
+      <c r="D26" s="10">
+        <f t="shared" ref="D26:AD26" si="25">C26+1</f>
         <v>45427</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <f t="shared" si="25"/>
         <v>45428</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <f t="shared" si="25"/>
         <v>45429</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <f t="shared" si="25"/>
         <v>45430</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="25"/>
         <v>45431</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <f t="shared" si="25"/>
         <v>45432</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J26" s="11">
         <f t="shared" si="25"/>
         <v>45433</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K26" s="11">
         <f t="shared" si="25"/>
         <v>45434</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L26" s="11">
         <f t="shared" si="25"/>
         <v>45435</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M26" s="11">
         <f t="shared" si="25"/>
         <v>45436</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N26" s="11">
         <f t="shared" si="25"/>
         <v>45437</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O26" s="11">
         <f t="shared" si="25"/>
         <v>45438</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P26" s="11">
         <f t="shared" si="25"/>
         <v>45439</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q26" s="10">
         <f t="shared" si="25"/>
         <v>45440</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R26" s="10">
         <f t="shared" si="25"/>
         <v>45441</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S26" s="10">
         <f t="shared" si="25"/>
         <v>45442</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T26" s="10">
         <f t="shared" si="25"/>
         <v>45443</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="25"/>
         <v>45444</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V26" s="10">
         <f t="shared" si="25"/>
         <v>45445</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W26" s="10">
         <f t="shared" si="25"/>
         <v>45446</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X26" s="11">
         <f t="shared" si="25"/>
         <v>45447</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y26" s="11">
         <f t="shared" si="25"/>
         <v>45448</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z26" s="11">
         <f t="shared" si="25"/>
         <v>45449</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA26" s="11">
         <f t="shared" si="25"/>
         <v>45450</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AB26" s="11">
         <f t="shared" si="25"/>
         <v>45451</v>
       </c>
-      <c r="AC25" s="11">
+      <c r="AC26" s="11">
         <f t="shared" si="25"/>
         <v>45452</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AD26" s="11">
         <f t="shared" si="25"/>
         <v>45453</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1">
-      <c r="B26" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="13"/>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
       <c r="B27" s="12" t="str">
@@ -2910,383 +2937,383 @@
       <c r="AD28" s="13"/>
     </row>
     <row r="29" spans="2:30" ht="30" customHeight="1">
-      <c r="B29" s="12"/>
-      <c r="C29" s="5" t="str">
-        <f>LOWER(TEXT(C31,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" ref="D29:I29" si="26">IF(TEXT(D31,"m월")=TEXT(C31,"m월"),"",LOWER(TEXT(D31,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E29" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="F29" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H29" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I29" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f>LOWER(TEXT(J31,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f t="shared" ref="K29:P29" si="27">IF(TEXT(K31,"m월")=TEXT(J31,"m월"),"",LOWER(TEXT(K31,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L29" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M29" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N29" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="P29" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="Q29" s="6" t="str">
-        <f>LOWER(TEXT(Q31,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="R29" s="6" t="str">
-        <f t="shared" ref="R29:W29" si="28">IF(TEXT(R31,"m월")=TEXT(Q31,"m월"),"",LOWER(TEXT(R31,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S29" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="T29" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="U29" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="V29" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="W29" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v>7월</v>
-      </c>
-      <c r="X29" s="7" t="str">
-        <f>LOWER(TEXT(X31,"m월"))</f>
-        <v>7월</v>
-      </c>
-      <c r="Y29" s="7" t="str">
-        <f t="shared" ref="Y29:AD29" si="29">IF(TEXT(Y31,"m월")=TEXT(X31,"m월"),"",LOWER(TEXT(Y31,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z29" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AA29" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AB29" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AC29" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AD29" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
+      <c r="B29" s="12" t="str">
+        <f>TEXT("","aaa")</f>
+        <v/>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="13"/>
     </row>
     <row r="30" spans="2:30" ht="30" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="8" t="str">
-        <f>LOWER(TEXT(C31,"aaa"))</f>
+      <c r="C30" s="5" t="str">
+        <f>LOWER(TEXT(C32,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f t="shared" ref="D30:I30" si="26">IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f>LOWER(TEXT(J32,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f t="shared" ref="K30:P30" si="27">IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q30" s="6" t="str">
+        <f>LOWER(TEXT(Q32,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="R30" s="6" t="str">
+        <f t="shared" ref="R30:W30" si="28">IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S30" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="T30" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="U30" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="V30" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="W30" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>7월</v>
+      </c>
+      <c r="X30" s="7" t="str">
+        <f>LOWER(TEXT(X32,"m월"))</f>
+        <v>7월</v>
+      </c>
+      <c r="Y30" s="7" t="str">
+        <f t="shared" ref="Y30:AD30" si="29">IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z30" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AA30" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AB30" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AC30" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AD30" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:30" ht="30" customHeight="1">
+      <c r="B31" s="12"/>
+      <c r="C31" s="8" t="str">
+        <f>LOWER(TEXT(C32,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D30" s="8" t="str">
-        <f t="shared" ref="D30:AD30" si="30">LOWER(TEXT(D31,"aaa"))</f>
+      <c r="D31" s="8" t="str">
+        <f t="shared" ref="D31:AD31" si="30">LOWER(TEXT(D32,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
-      <c r="J30" s="9" t="str">
+      <c r="J31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>화</v>
       </c>
-      <c r="K30" s="9" t="str">
+      <c r="K31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>수</v>
       </c>
-      <c r="L30" s="9" t="str">
+      <c r="L31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="M30" s="9" t="str">
+      <c r="M31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="N30" s="9" t="str">
+      <c r="N31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="O30" s="9" t="str">
+      <c r="O31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="P30" s="9" t="str">
+      <c r="P31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="Q31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>화</v>
       </c>
-      <c r="R30" s="8" t="str">
+      <c r="R31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>수</v>
       </c>
-      <c r="S30" s="8" t="str">
+      <c r="S31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="T30" s="8" t="str">
+      <c r="T31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="U30" s="8" t="str">
+      <c r="U31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="V30" s="8" t="str">
+      <c r="V31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="W30" s="8" t="str">
+      <c r="W31" s="8" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
-      <c r="X30" s="9" t="str">
+      <c r="X31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>화</v>
       </c>
-      <c r="Y30" s="9" t="str">
+      <c r="Y31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>수</v>
       </c>
-      <c r="Z30" s="9" t="str">
+      <c r="Z31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="AA30" s="9" t="str">
+      <c r="AA31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="AB30" s="9" t="str">
+      <c r="AB31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="AC30" s="9" t="str">
+      <c r="AC31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="AD30" s="9" t="str">
+      <c r="AD31" s="9" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="12"/>
-      <c r="C31" s="10">
-        <f>AD25+1</f>
+    <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B32" s="12"/>
+      <c r="C32" s="10">
+        <f>AD26+1</f>
         <v>45454</v>
       </c>
-      <c r="D31" s="10">
-        <f t="shared" ref="D31:AD31" si="31">C31+1</f>
+      <c r="D32" s="10">
+        <f t="shared" ref="D32:AD32" si="31">C32+1</f>
         <v>45455</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <f t="shared" si="31"/>
         <v>45456</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="31"/>
         <v>45457</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <f t="shared" si="31"/>
         <v>45458</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="31"/>
         <v>45459</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <f t="shared" si="31"/>
         <v>45460</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J32" s="11">
         <f t="shared" si="31"/>
         <v>45461</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <f t="shared" si="31"/>
         <v>45462</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L32" s="11">
         <f t="shared" si="31"/>
         <v>45463</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M32" s="11">
         <f t="shared" si="31"/>
         <v>45464</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N32" s="11">
         <f t="shared" si="31"/>
         <v>45465</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O32" s="11">
         <f t="shared" si="31"/>
         <v>45466</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P32" s="11">
         <f t="shared" si="31"/>
         <v>45467</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q32" s="10">
         <f t="shared" si="31"/>
         <v>45468</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R32" s="10">
         <f t="shared" si="31"/>
         <v>45469</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S32" s="10">
         <f t="shared" si="31"/>
         <v>45470</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T32" s="10">
         <f t="shared" si="31"/>
         <v>45471</v>
       </c>
-      <c r="U31" s="10">
+      <c r="U32" s="10">
         <f t="shared" si="31"/>
         <v>45472</v>
       </c>
-      <c r="V31" s="10">
+      <c r="V32" s="10">
         <f t="shared" si="31"/>
         <v>45473</v>
       </c>
-      <c r="W31" s="10">
+      <c r="W32" s="10">
         <f t="shared" si="31"/>
         <v>45474</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X32" s="11">
         <f t="shared" si="31"/>
         <v>45475</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y32" s="11">
         <f t="shared" si="31"/>
         <v>45476</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z32" s="11">
         <f t="shared" si="31"/>
         <v>45477</v>
       </c>
-      <c r="AA31" s="11">
+      <c r="AA32" s="11">
         <f t="shared" si="31"/>
         <v>45478</v>
       </c>
-      <c r="AB31" s="11">
+      <c r="AB32" s="11">
         <f t="shared" si="31"/>
         <v>45479</v>
       </c>
-      <c r="AC31" s="11">
+      <c r="AC32" s="11">
         <f t="shared" si="31"/>
         <v>45480</v>
       </c>
-      <c r="AD31" s="11">
+      <c r="AD32" s="11">
         <f t="shared" si="31"/>
         <v>45481</v>
       </c>
-    </row>
-    <row r="32" spans="2:30" ht="30" customHeight="1">
-      <c r="B32" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="13"/>
     </row>
     <row r="33" spans="2:30" ht="30" customHeight="1">
       <c r="B33" s="12" t="str">
@@ -3302,7 +3329,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
-      <c r="L33" s="13"/>
+      <c r="L33"/>
       <c r="M33" s="14"/>
       <c r="N33" s="13"/>
       <c r="O33" s="14"/>
@@ -3336,7 +3363,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
-      <c r="L34"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="14"/>
       <c r="N34" s="13"/>
       <c r="O34" s="14"/>
@@ -3356,6 +3383,40 @@
       <c r="AC34" s="14"/>
       <c r="AD34" s="13"/>
     </row>
+    <row r="35" spans="2:30" ht="30" customHeight="1">
+      <c r="B35" s="12" t="str">
+        <f>TEXT("","aaa")</f>
+        <v/>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:AD1"/>
@@ -3367,22 +3428,22 @@
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:AD13">
+  <conditionalFormatting sqref="C13:AD14">
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:AD19">
+  <conditionalFormatting sqref="C19:AD20">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:AD25">
+  <conditionalFormatting sqref="C25:AD26">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:AD31">
+  <conditionalFormatting sqref="C31:AD32">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>C$6=TODAY()</formula>
     </cfRule>

--- a/작업일지/노창현/계획서.xlsx
+++ b/작업일지/노창현/계획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\작업일지\노창현\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F9BBD-FBCE-4889-90A7-3A4D685AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E8C2B7-16EE-4F84-980F-C12238669344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +449,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +655,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -701,12 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -718,6 +724,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1055,10 +1076,10 @@
     <tabColor rgb="FFF79646"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD35"/>
+  <dimension ref="B1:AD36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1070,48 +1091,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="24">
         <f>DATEVALUE("2024/02/20")</f>
         <v>45342</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -1495,8 +1516,8 @@
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="12" t="str">
-        <f>TEXT("캐릭터 머테리얼작업","aaa")</f>
-        <v>캐릭터 머테리얼작업</v>
+        <f>TEXT("캐릭터 텍스처 작업","aaa")</f>
+        <v>캐릭터 텍스처 작업</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1581,13 +1602,13 @@
       <c r="O10" s="14"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="14"/>
@@ -1622,12 +1643,12 @@
       <c r="V11" s="13"/>
       <c r="W11" s="14"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
     </row>
     <row r="12" spans="2:30" ht="30" customHeight="1">
       <c r="B12" s="12"/>
@@ -1979,7 +2000,7 @@
         <f>TEXT("맵 텍스처 작업","aaa")</f>
         <v>맵 텍스처 작업</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
@@ -2014,18 +2035,18 @@
         <v>오브젝트 모델링</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="13"/>
@@ -2044,8 +2065,8 @@
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
       <c r="B17" s="12" t="str">
-        <f>TEXT("오브젝트 텍스처 작업","aaa")</f>
-        <v>오브젝트 텍스처 작업</v>
+        <f>TEXT("이팩트 제작","aaa")</f>
+        <v>이팩트 제작</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
@@ -2060,415 +2081,415 @@
       <c r="M17" s="14"/>
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
     </row>
     <row r="18" spans="2:30" ht="30" customHeight="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="5" t="str">
-        <f>LOWER(TEXT(C20,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" ref="D18:I18" si="14">IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E18" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F18" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G18" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H18" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I18" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J18" s="7" t="str">
-        <f>LOWER(TEXT(J20,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="K18" s="7" t="str">
-        <f t="shared" ref="K18:P18" si="15">IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L18" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M18" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N18" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O18" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P18" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="Q18" s="6" t="str">
-        <f>LOWER(TEXT(Q20,"m월"))</f>
-        <v>4월</v>
-      </c>
-      <c r="R18" s="6" t="str">
-        <f t="shared" ref="R18:W18" si="16">IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
-        <v>5월</v>
-      </c>
-      <c r="S18" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="T18" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="U18" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="V18" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="W18" s="6" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="X18" s="7" t="str">
-        <f>LOWER(TEXT(X20,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="Y18" s="7" t="str">
-        <f t="shared" ref="Y18:AD18" si="17">IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z18" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA18" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AB18" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AC18" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AD18" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="B18" s="12" t="str">
+        <f>TEXT("오브젝트 텍스처 작업","aaa")</f>
+        <v>오브젝트 텍스처 작업</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="13"/>
     </row>
     <row r="19" spans="2:30" ht="30" customHeight="1">
       <c r="B19" s="12"/>
-      <c r="C19" s="8" t="str">
-        <f>LOWER(TEXT(C20,"aaa"))</f>
+      <c r="C19" s="5" t="str">
+        <f>LOWER(TEXT(C21,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f t="shared" ref="D19:I19" si="14">IF(TEXT(D21,"m월")=TEXT(C21,"m월"),"",LOWER(TEXT(D21,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f>LOWER(TEXT(J21,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" ref="K19:P19" si="15">IF(TEXT(K21,"m월")=TEXT(J21,"m월"),"",LOWER(TEXT(K21,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L19" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q19" s="6" t="str">
+        <f>LOWER(TEXT(Q21,"m월"))</f>
+        <v>4월</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" ref="R19:W19" si="16">IF(TEXT(R21,"m월")=TEXT(Q21,"m월"),"",LOWER(TEXT(R21,"m월")))</f>
+        <v>5월</v>
+      </c>
+      <c r="S19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="T19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="V19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="W19" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="X19" s="7" t="str">
+        <f>LOWER(TEXT(X21,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="Y19" s="7" t="str">
+        <f t="shared" ref="Y19:AD19" si="17">IF(TEXT(Y21,"m월")=TEXT(X21,"m월"),"",LOWER(TEXT(Y21,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA19" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB19" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AC19" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD19" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="30" customHeight="1">
+      <c r="B20" s="12"/>
+      <c r="C20" s="8" t="str">
+        <f>LOWER(TEXT(C21,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D19" s="8" t="str">
-        <f t="shared" ref="D19:AD19" si="18">LOWER(TEXT(D20,"aaa"))</f>
+      <c r="D20" s="8" t="str">
+        <f t="shared" ref="D20:AD20" si="18">LOWER(TEXT(D21,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="K20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>수</v>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="M19" s="9" t="str">
+      <c r="M20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="N19" s="9" t="str">
+      <c r="N20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="O19" s="9" t="str">
+      <c r="O20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="P19" s="9" t="str">
+      <c r="P20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="Q20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="R20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>수</v>
       </c>
-      <c r="S19" s="8" t="str">
+      <c r="S20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="T19" s="8" t="str">
+      <c r="T20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="U19" s="8" t="str">
+      <c r="U20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="V19" s="8" t="str">
+      <c r="V20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="W19" s="8" t="str">
+      <c r="W20" s="8" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
-      <c r="X19" s="9" t="str">
+      <c r="X20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>화</v>
       </c>
-      <c r="Y19" s="9" t="str">
+      <c r="Y20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>수</v>
       </c>
-      <c r="Z19" s="9" t="str">
+      <c r="Z20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>목</v>
       </c>
-      <c r="AA19" s="9" t="str">
+      <c r="AA20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>금</v>
       </c>
-      <c r="AB19" s="9" t="str">
+      <c r="AB20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>토</v>
       </c>
-      <c r="AC19" s="9" t="str">
+      <c r="AC20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>일</v>
       </c>
-      <c r="AD19" s="9" t="str">
+      <c r="AD20" s="9" t="str">
         <f t="shared" si="18"/>
         <v>월</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="12"/>
-      <c r="C20" s="10">
+    <row r="21" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="10">
         <f>AD14+1</f>
         <v>45398</v>
       </c>
-      <c r="D20" s="10">
-        <f t="shared" ref="D20:AD20" si="19">C20+1</f>
+      <c r="D21" s="10">
+        <f t="shared" ref="D21:AD21" si="19">C21+1</f>
         <v>45399</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <f t="shared" si="19"/>
         <v>45400</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <f t="shared" si="19"/>
         <v>45401</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <f t="shared" si="19"/>
         <v>45402</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H21" s="10">
         <f t="shared" si="19"/>
         <v>45403</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="10">
         <f t="shared" si="19"/>
         <v>45404</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <f t="shared" si="19"/>
         <v>45405</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <f t="shared" si="19"/>
         <v>45406</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L21" s="11">
         <f t="shared" si="19"/>
         <v>45407</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M21" s="11">
         <f t="shared" si="19"/>
         <v>45408</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N21" s="11">
         <f t="shared" si="19"/>
         <v>45409</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="11">
         <f t="shared" si="19"/>
         <v>45410</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P21" s="11">
         <f t="shared" si="19"/>
         <v>45411</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q21" s="10">
         <f t="shared" si="19"/>
         <v>45412</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R21" s="10">
         <f t="shared" si="19"/>
         <v>45413</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S21" s="10">
         <f t="shared" si="19"/>
         <v>45414</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T21" s="10">
         <f t="shared" si="19"/>
         <v>45415</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U21" s="10">
         <f t="shared" si="19"/>
         <v>45416</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V21" s="10">
         <f t="shared" si="19"/>
         <v>45417</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W21" s="10">
         <f t="shared" si="19"/>
         <v>45418</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X21" s="11">
         <f t="shared" si="19"/>
         <v>45419</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y21" s="11">
         <f t="shared" si="19"/>
         <v>45420</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z21" s="11">
         <f t="shared" si="19"/>
         <v>45421</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA21" s="11">
         <f t="shared" si="19"/>
         <v>45422</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AB21" s="11">
         <f t="shared" si="19"/>
         <v>45423</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AC21" s="11">
         <f t="shared" si="19"/>
         <v>45424</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AD21" s="11">
         <f t="shared" si="19"/>
         <v>45425</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" ht="30" customHeight="1">
-      <c r="B21" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="13"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
       <c r="B22" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+        <f>TEXT("이펙트 제작","aaa")</f>
+        <v>이펙트 제작</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="13"/>
       <c r="M22" s="14"/>
       <c r="N22" s="13"/>
@@ -2491,8 +2512,8 @@
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1">
       <c r="B23" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
+        <f>TEXT("중간평가전 마무리","aaa")</f>
+        <v>중간평가전 마무리</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
@@ -2503,13 +2524,13 @@
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="13"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
       <c r="S23" s="14"/>
       <c r="T23" s="13"/>
       <c r="U23" s="14"/>
@@ -2524,383 +2545,383 @@
       <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="5" t="str">
-        <f>LOWER(TEXT(C26,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" ref="D24:I24" si="20">IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E24" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F24" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G24" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H24" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I24" s="6" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J24" s="7" t="str">
-        <f>LOWER(TEXT(J26,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="K24" s="7" t="str">
-        <f t="shared" ref="K24:P24" si="21">IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L24" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M24" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N24" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O24" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P24" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q24" s="6" t="str">
-        <f>LOWER(TEXT(Q26,"m월"))</f>
-        <v>5월</v>
-      </c>
-      <c r="R24" s="6" t="str">
-        <f t="shared" ref="R24:W24" si="22">IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S24" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T24" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="U24" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>6월</v>
-      </c>
-      <c r="V24" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="W24" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X24" s="7" t="str">
-        <f>LOWER(TEXT(X26,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="Y24" s="7" t="str">
-        <f t="shared" ref="Y24:AD24" si="23">IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z24" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AA24" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AB24" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AC24" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AD24" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
+      <c r="B24" s="12" t="str">
+        <f>TEXT("캐릭터 표정 ,추가 애니메이션","aaa")</f>
+        <v>캐릭터 표정 ,추가 애니메이션</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
     </row>
     <row r="25" spans="2:30" ht="30" customHeight="1">
       <c r="B25" s="12"/>
-      <c r="C25" s="8" t="str">
-        <f>LOWER(TEXT(C26,"aaa"))</f>
+      <c r="C25" s="5" t="str">
+        <f>LOWER(TEXT(C27,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" ref="D25:I25" si="20">IF(TEXT(D27,"m월")=TEXT(C27,"m월"),"",LOWER(TEXT(D27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J25" s="7" t="str">
+        <f>LOWER(TEXT(J27,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f t="shared" ref="K25:P25" si="21">IF(TEXT(K27,"m월")=TEXT(J27,"m월"),"",LOWER(TEXT(K27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L25" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="M25" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O25" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="P25" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q25" s="6" t="str">
+        <f>LOWER(TEXT(Q27,"m월"))</f>
+        <v>5월</v>
+      </c>
+      <c r="R25" s="6" t="str">
+        <f t="shared" ref="R25:W25" si="22">IF(TEXT(R27,"m월")=TEXT(Q27,"m월"),"",LOWER(TEXT(R27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S25" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T25" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U25" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>6월</v>
+      </c>
+      <c r="V25" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W25" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X25" s="7" t="str">
+        <f>LOWER(TEXT(X27,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="Y25" s="7" t="str">
+        <f t="shared" ref="Y25:AD25" si="23">IF(TEXT(Y27,"m월")=TEXT(X27,"m월"),"",LOWER(TEXT(Y27,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AA25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AB25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AC25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AD25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:30" ht="30" customHeight="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="8" t="str">
+        <f>LOWER(TEXT(C27,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D25" s="8" t="str">
-        <f t="shared" ref="D25:AD25" si="24">LOWER(TEXT(D26,"aaa"))</f>
+      <c r="D26" s="8" t="str">
+        <f t="shared" ref="D26:AD26" si="24">LOWER(TEXT(D27,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
-      <c r="J25" s="9" t="str">
+      <c r="J26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>화</v>
       </c>
-      <c r="K25" s="9" t="str">
+      <c r="K26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>수</v>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="M25" s="9" t="str">
+      <c r="M26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="N25" s="9" t="str">
+      <c r="N26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="O25" s="9" t="str">
+      <c r="O26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="P25" s="9" t="str">
+      <c r="P26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
-      <c r="Q25" s="8" t="str">
+      <c r="Q26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>화</v>
       </c>
-      <c r="R25" s="8" t="str">
+      <c r="R26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>수</v>
       </c>
-      <c r="S25" s="8" t="str">
+      <c r="S26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="T25" s="8" t="str">
+      <c r="T26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="U25" s="8" t="str">
+      <c r="U26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="V25" s="8" t="str">
+      <c r="V26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="W25" s="8" t="str">
+      <c r="W26" s="8" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
-      <c r="X25" s="9" t="str">
+      <c r="X26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>화</v>
       </c>
-      <c r="Y25" s="9" t="str">
+      <c r="Y26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>수</v>
       </c>
-      <c r="Z25" s="9" t="str">
+      <c r="Z26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>목</v>
       </c>
-      <c r="AA25" s="9" t="str">
+      <c r="AA26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>금</v>
       </c>
-      <c r="AB25" s="9" t="str">
+      <c r="AB26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>토</v>
       </c>
-      <c r="AC25" s="9" t="str">
+      <c r="AC26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>일</v>
       </c>
-      <c r="AD25" s="9" t="str">
+      <c r="AD26" s="9" t="str">
         <f t="shared" si="24"/>
         <v>월</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="10">
-        <f>AD20+1</f>
+    <row r="27" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B27" s="12"/>
+      <c r="C27" s="10">
+        <f>AD21+1</f>
         <v>45426</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" ref="D26:AD26" si="25">C26+1</f>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:AD27" si="25">C27+1</f>
         <v>45427</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <f t="shared" si="25"/>
         <v>45428</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="25"/>
         <v>45429</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <f t="shared" si="25"/>
         <v>45430</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <f t="shared" si="25"/>
         <v>45431</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I27" s="10">
         <f t="shared" si="25"/>
         <v>45432</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <f t="shared" si="25"/>
         <v>45433</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K27" s="11">
         <f t="shared" si="25"/>
         <v>45434</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L27" s="11">
         <f t="shared" si="25"/>
         <v>45435</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M27" s="11">
         <f t="shared" si="25"/>
         <v>45436</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N27" s="11">
         <f t="shared" si="25"/>
         <v>45437</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <f t="shared" si="25"/>
         <v>45438</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P27" s="11">
         <f t="shared" si="25"/>
         <v>45439</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="Q27" s="10">
         <f t="shared" si="25"/>
         <v>45440</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R27" s="10">
         <f t="shared" si="25"/>
         <v>45441</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S27" s="10">
         <f t="shared" si="25"/>
         <v>45442</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T27" s="10">
         <f t="shared" si="25"/>
         <v>45443</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U27" s="10">
         <f t="shared" si="25"/>
         <v>45444</v>
       </c>
-      <c r="V26" s="10">
+      <c r="V27" s="10">
         <f t="shared" si="25"/>
         <v>45445</v>
       </c>
-      <c r="W26" s="10">
+      <c r="W27" s="10">
         <f t="shared" si="25"/>
         <v>45446</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X27" s="11">
         <f t="shared" si="25"/>
         <v>45447</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y27" s="11">
         <f t="shared" si="25"/>
         <v>45448</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z27" s="11">
         <f t="shared" si="25"/>
         <v>45449</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA27" s="11">
         <f t="shared" si="25"/>
         <v>45450</v>
       </c>
-      <c r="AB26" s="11">
+      <c r="AB27" s="11">
         <f t="shared" si="25"/>
         <v>45451</v>
       </c>
-      <c r="AC26" s="11">
+      <c r="AC27" s="11">
         <f t="shared" si="25"/>
         <v>45452</v>
       </c>
-      <c r="AD26" s="11">
+      <c r="AD27" s="11">
         <f t="shared" si="25"/>
         <v>45453</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" ht="30" customHeight="1">
-      <c r="B27" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="13"/>
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1">
       <c r="B28" s="12" t="str">
@@ -2971,383 +2992,383 @@
       <c r="AD29" s="13"/>
     </row>
     <row r="30" spans="2:30" ht="30" customHeight="1">
-      <c r="B30" s="12"/>
-      <c r="C30" s="5" t="str">
-        <f>LOWER(TEXT(C32,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" ref="D30:I30" si="26">IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E30" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="F30" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G30" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="H30" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I30" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f>LOWER(TEXT(J32,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f t="shared" ref="K30:P30" si="27">IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N30" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="P30" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="Q30" s="6" t="str">
-        <f>LOWER(TEXT(Q32,"m월"))</f>
-        <v>6월</v>
-      </c>
-      <c r="R30" s="6" t="str">
-        <f t="shared" ref="R30:W30" si="28">IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S30" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="T30" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="U30" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="V30" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="W30" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v>7월</v>
-      </c>
-      <c r="X30" s="7" t="str">
-        <f>LOWER(TEXT(X32,"m월"))</f>
-        <v>7월</v>
-      </c>
-      <c r="Y30" s="7" t="str">
-        <f t="shared" ref="Y30:AD30" si="29">IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z30" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AA30" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AB30" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AC30" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="AD30" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
+      <c r="B30" s="12" t="str">
+        <f>TEXT("","aaa")</f>
+        <v/>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="13"/>
     </row>
     <row r="31" spans="2:30" ht="30" customHeight="1">
       <c r="B31" s="12"/>
-      <c r="C31" s="8" t="str">
-        <f>LOWER(TEXT(C32,"aaa"))</f>
+      <c r="C31" s="5" t="str">
+        <f>LOWER(TEXT(C33,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f t="shared" ref="D31:I31" si="26">IF(TEXT(D33,"m월")=TEXT(C33,"m월"),"",LOWER(TEXT(D33,"m월")))</f>
+        <v/>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f>LOWER(TEXT(J33,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f t="shared" ref="K31:P31" si="27">IF(TEXT(K33,"m월")=TEXT(J33,"m월"),"",LOWER(TEXT(K33,"m월")))</f>
+        <v/>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P31" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q31" s="6" t="str">
+        <f>LOWER(TEXT(Q33,"m월"))</f>
+        <v>6월</v>
+      </c>
+      <c r="R31" s="6" t="str">
+        <f t="shared" ref="R31:W31" si="28">IF(TEXT(R33,"m월")=TEXT(Q33,"m월"),"",LOWER(TEXT(R33,"m월")))</f>
+        <v/>
+      </c>
+      <c r="S31" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="T31" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="U31" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="V31" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="W31" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>7월</v>
+      </c>
+      <c r="X31" s="7" t="str">
+        <f>LOWER(TEXT(X33,"m월"))</f>
+        <v>7월</v>
+      </c>
+      <c r="Y31" s="7" t="str">
+        <f t="shared" ref="Y31:AD31" si="29">IF(TEXT(Y33,"m월")=TEXT(X33,"m월"),"",LOWER(TEXT(Y33,"m월")))</f>
+        <v/>
+      </c>
+      <c r="Z31" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AA31" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AB31" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AC31" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AD31" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:30" ht="30" customHeight="1">
+      <c r="B32" s="12"/>
+      <c r="C32" s="8" t="str">
+        <f>LOWER(TEXT(C33,"aaa"))</f>
         <v>화</v>
       </c>
-      <c r="D31" s="8" t="str">
-        <f t="shared" ref="D31:AD31" si="30">LOWER(TEXT(D32,"aaa"))</f>
+      <c r="D32" s="8" t="str">
+        <f t="shared" ref="D32:AD32" si="30">LOWER(TEXT(D33,"aaa"))</f>
         <v>수</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="I31" s="8" t="str">
+      <c r="I32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
-      <c r="J31" s="9" t="str">
+      <c r="J32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>화</v>
       </c>
-      <c r="K31" s="9" t="str">
+      <c r="K32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>수</v>
       </c>
-      <c r="L31" s="9" t="str">
+      <c r="L32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="M31" s="9" t="str">
+      <c r="M32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="N31" s="9" t="str">
+      <c r="N32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="O31" s="9" t="str">
+      <c r="O32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="P31" s="9" t="str">
+      <c r="P32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
-      <c r="Q31" s="8" t="str">
+      <c r="Q32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>화</v>
       </c>
-      <c r="R31" s="8" t="str">
+      <c r="R32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>수</v>
       </c>
-      <c r="S31" s="8" t="str">
+      <c r="S32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="T31" s="8" t="str">
+      <c r="T32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="U31" s="8" t="str">
+      <c r="U32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="V31" s="8" t="str">
+      <c r="V32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="W31" s="8" t="str">
+      <c r="W32" s="8" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
-      <c r="X31" s="9" t="str">
+      <c r="X32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>화</v>
       </c>
-      <c r="Y31" s="9" t="str">
+      <c r="Y32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>수</v>
       </c>
-      <c r="Z31" s="9" t="str">
+      <c r="Z32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>목</v>
       </c>
-      <c r="AA31" s="9" t="str">
+      <c r="AA32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>금</v>
       </c>
-      <c r="AB31" s="9" t="str">
+      <c r="AB32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>토</v>
       </c>
-      <c r="AC31" s="9" t="str">
+      <c r="AC32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>일</v>
       </c>
-      <c r="AD31" s="9" t="str">
+      <c r="AD32" s="9" t="str">
         <f t="shared" si="30"/>
         <v>월</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="10">
-        <f>AD26+1</f>
+    <row r="33" spans="2:30" ht="30" customHeight="1" thickBot="1">
+      <c r="B33" s="12"/>
+      <c r="C33" s="10">
+        <f>AD27+1</f>
         <v>45454</v>
       </c>
-      <c r="D32" s="10">
-        <f t="shared" ref="D32:AD32" si="31">C32+1</f>
+      <c r="D33" s="10">
+        <f t="shared" ref="D33:AD33" si="31">C33+1</f>
         <v>45455</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="31"/>
         <v>45456</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="31"/>
         <v>45457</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <f t="shared" si="31"/>
         <v>45458</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="31"/>
         <v>45459</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <f t="shared" si="31"/>
         <v>45460</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J33" s="11">
         <f t="shared" si="31"/>
         <v>45461</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <f t="shared" si="31"/>
         <v>45462</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L33" s="11">
         <f t="shared" si="31"/>
         <v>45463</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M33" s="11">
         <f t="shared" si="31"/>
         <v>45464</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N33" s="11">
         <f t="shared" si="31"/>
         <v>45465</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O33" s="11">
         <f t="shared" si="31"/>
         <v>45466</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P33" s="11">
         <f t="shared" si="31"/>
         <v>45467</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q33" s="10">
         <f t="shared" si="31"/>
         <v>45468</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R33" s="10">
         <f t="shared" si="31"/>
         <v>45469</v>
       </c>
-      <c r="S32" s="10">
+      <c r="S33" s="10">
         <f t="shared" si="31"/>
         <v>45470</v>
       </c>
-      <c r="T32" s="10">
+      <c r="T33" s="10">
         <f t="shared" si="31"/>
         <v>45471</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U33" s="10">
         <f t="shared" si="31"/>
         <v>45472</v>
       </c>
-      <c r="V32" s="10">
+      <c r="V33" s="10">
         <f t="shared" si="31"/>
         <v>45473</v>
       </c>
-      <c r="W32" s="10">
+      <c r="W33" s="10">
         <f t="shared" si="31"/>
         <v>45474</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X33" s="11">
         <f t="shared" si="31"/>
         <v>45475</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y33" s="11">
         <f t="shared" si="31"/>
         <v>45476</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z33" s="11">
         <f t="shared" si="31"/>
         <v>45477</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA33" s="11">
         <f t="shared" si="31"/>
         <v>45478</v>
       </c>
-      <c r="AB32" s="11">
+      <c r="AB33" s="11">
         <f t="shared" si="31"/>
         <v>45479</v>
       </c>
-      <c r="AC32" s="11">
+      <c r="AC33" s="11">
         <f t="shared" si="31"/>
         <v>45480</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AD33" s="11">
         <f t="shared" si="31"/>
         <v>45481</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" ht="30" customHeight="1">
-      <c r="B33" s="12" t="str">
-        <f>TEXT("","aaa")</f>
-        <v/>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="13"/>
     </row>
     <row r="34" spans="2:30" ht="30" customHeight="1">
       <c r="B34" s="12" t="str">
@@ -3363,7 +3384,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="13"/>
+      <c r="L34"/>
       <c r="M34" s="14"/>
       <c r="N34" s="13"/>
       <c r="O34" s="14"/>
@@ -3397,7 +3418,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
-      <c r="L35"/>
+      <c r="L35" s="13"/>
       <c r="M35" s="14"/>
       <c r="N35" s="13"/>
       <c r="O35" s="14"/>
@@ -3417,6 +3438,40 @@
       <c r="AC35" s="14"/>
       <c r="AD35" s="13"/>
     </row>
+    <row r="36" spans="2:30" ht="30" customHeight="1">
+      <c r="B36" s="12" t="str">
+        <f>TEXT("","aaa")</f>
+        <v/>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:AD1"/>
@@ -3433,17 +3488,17 @@
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:AD20">
+  <conditionalFormatting sqref="C20:AD21">
     <cfRule type="expression" dxfId="2" priority="5">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:AD26">
+  <conditionalFormatting sqref="C26:AD27">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:AD32">
+  <conditionalFormatting sqref="C32:AD33">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>C$6=TODAY()</formula>
     </cfRule>

--- a/작업일지/노창현/계획서.xlsx
+++ b/작업일지/노창현/계획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChangHyeon\Desktop\23TH_TUK_Senior_Project\작업일지\노창현\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E8C2B7-16EE-4F84-980F-C12238669344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3E4FF1-738C-431A-98F4-2AFACE3AD96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="2505" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -725,12 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -738,6 +732,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="6">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
   <dimension ref="B1:AD36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1091,48 +1091,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="27">
         <f>DATEVALUE("2024/02/20")</f>
         <v>45342</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
@@ -2090,12 +2090,12 @@
       <c r="V17" s="13"/>
       <c r="W17" s="14"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
     </row>
     <row r="18" spans="2:30" ht="30" customHeight="1">
       <c r="B18" s="12" t="str">
@@ -2481,15 +2481,15 @@
         <f>TEXT("이펙트 제작","aaa")</f>
         <v>이펙트 제작</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="13"/>
       <c r="M22" s="14"/>
       <c r="N22" s="13"/>
@@ -2524,13 +2524,13 @@
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
       <c r="S23" s="14"/>
       <c r="T23" s="13"/>
       <c r="U23" s="14"/>
